--- a/Data/BCLvolume_2004.xlsx
+++ b/Data/BCLvolume_2004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Hill\Desktop\BPA_stuff\Northwest Region\Williamette\ResSim Reservoirs\Willamette\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\OneDrive - University of North Carolina at Chapel Hill\UNC_2017\PNW\INFEWSgroup_Willamette\Willamette_model\Williamette\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="BCL_2004_Initial" sheetId="1" r:id="rId1"/>
@@ -839,15 +839,15 @@
   <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>38350</v>
       </c>
@@ -869,7 +869,7 @@
         <v>5694.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>38350</v>
       </c>
@@ -880,7 +880,7 @@
         <v>5627.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>38350</v>
       </c>
@@ -891,7 +891,7 @@
         <v>5556.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>38350</v>
       </c>
@@ -902,7 +902,7 @@
         <v>5467.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>38350</v>
       </c>
@@ -913,7 +913,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>38350</v>
       </c>
@@ -924,7 +924,7 @@
         <v>5349</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>38350</v>
       </c>
@@ -935,7 +935,7 @@
         <v>5278.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>38350</v>
       </c>
@@ -946,7 +946,7 @@
         <v>5204.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>38350</v>
       </c>
@@ -957,7 +957,7 @@
         <v>5130.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>38350</v>
       </c>
@@ -968,7 +968,7 @@
         <v>5055.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>38350</v>
       </c>
@@ -979,7 +979,7 @@
         <v>4977.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>38350</v>
       </c>
@@ -990,7 +990,7 @@
         <v>4904.3999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>38350</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>4827.6000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>38350</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>38350</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>4904.3999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>38350</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>4966.8999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>38350</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>5034.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>38350</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>5098.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>38350</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>5161.8999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>38350</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>38350</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>5282.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>38350</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>38350</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>5388</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>38350</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>5432</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>38350</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>5499.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>38350</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>5523.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>38350</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>5569.6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>38350</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>5629.9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>38350</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>5555.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>38350</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>38350</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>38350</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>5338.7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>38350</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>38350</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>38350</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>5472</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>38350</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>5539.2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>38350</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>5607.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38351</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>5480</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>38351</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>38351</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>5330.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>38351</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>5243.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>38351</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>5152.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>38351</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>5060.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>38351</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>4966.8999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>38351</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>38351</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>4789.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>38351</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>4699.2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>38351</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>4606.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>38351</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>38351</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>38351</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>4570.8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>38351</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>4624.8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>38351</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>4672.8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>38351</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>38351</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>4768.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>38351</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>4816.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>38351</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>4862.3999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>38351</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>4910.3999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>38351</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>4956.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>38351</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>5004.6000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>38351</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>5056.6000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>38351</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>5103.3999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>38351</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>5151.5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>38351</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>5200.8999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>38351</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>5247.7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>38351</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5294.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>38351</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>38351</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>5377</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>38351</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>5414</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>38351</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>5454.4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>38351</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>5515.2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>38351</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>5572.8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>38351</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>38351</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>5681.9</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>38351</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>5738.4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>38351</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>5795.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>38351</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>5854.6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>38351</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>5917.6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>38351</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>38351</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>5889.6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>38351</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>5825.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>38351</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>5763.6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>38351</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>5694.9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>38351</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>5623.4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>38352</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>5548.8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>38352</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>5467.2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>38352</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>38352</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>38352</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>5281.5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>38352</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>5208.7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>38352</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5135.8999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>38352</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>5061.8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>38352</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>4985.1000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>38352</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>4911.6000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>38352</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>4839.6000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>38352</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>4765.2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>38352</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>4693.2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>38352</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>4617.6000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>38352</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>4543.2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>38352</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>4467.6000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>38352</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>4390.8</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>38352</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>4315.8999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>38352</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>4243.3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>38352</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>4172.8999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>38352</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>4101.3999999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>38352</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>4028.8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>38352</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>3957.3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>38352</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>3990.3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>38352</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>4056.3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>38352</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>38352</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>4202.6000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>38352</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>4274.1000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>38352</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>4344.5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>38352</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>38352</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>4496.3999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>38352</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>4573.2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>38352</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>38352</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>38352</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>4797.6000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>38352</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>4870.8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>38352</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>4941.6000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>38352</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>5018.8999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>38352</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>5098.2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>38352</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>5178.8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>38352</v>
       </c>
@@ -2234,6 +2234,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C126">
+    <sortCondition ref="A2:A126"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>